--- a/data/trans_dic/IP74A6_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP74A6_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,13; 100,0</t>
+          <t>23,0; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,38; 100,0</t>
+          <t>15,75; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>32,0; 92,28</t>
+          <t>32,63; 93,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP74A6_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP74A6_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,62%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,48%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,87%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,82; 85,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>92,24; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,13; 92,33</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>63,31%</t>
+          <t>82,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>63,31%</t>
+          <t>85,72%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>69,38; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>65,12; 91,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>73,21; 93,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>56,25%</t>
+          <t>87,29%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>64,55%</t>
+          <t>93,46%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>56,71; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>87,39; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,85; 100,0</t>
+          <t>77,83; 100,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>87,55%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>84,85%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>74,52; 95,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>57,37; 95,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>74,19; 93,12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>84,74%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>40,4%</t>
+          <t>87,12%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>70,12%</t>
+          <t>86,01%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>75,8; 91,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>77,67; 92,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>80,3; 90,63</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>75,07%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>60,81%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>68,8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>23,0; 100,0</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>15,75; 100,0</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>32,63; 93,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
